--- a/Jogos_do_Dia/2022-12-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="H2" t="n">
-        <v>3.95</v>
+        <v>3.64</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>2.9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="N2" t="n">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="O2" t="n">
         <v>1.48</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,10 +763,10 @@
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,7 +873,7 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="N4" t="n">
         <v>2.05</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>4.42</v>
       </c>
       <c r="I5" t="n">
         <v>1.11</v>
@@ -983,7 +983,7 @@
         <v>2.5</v>
       </c>
       <c r="M5" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N5" t="n">
         <v>1.52</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.11</v>
+        <v>2.93</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="I6" t="n">
         <v>1.12</v>
@@ -1123,16 +1123,16 @@
         <v>1.44</v>
       </c>
       <c r="W6" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="X6" t="n">
         <v>1.16</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.87</v>
+        <v>2.78</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="H7" t="n">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.11</v>
@@ -1203,10 +1203,10 @@
         <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="N7" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>

--- a/Jogos_do_Dia/2022-12-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="H2" t="n">
-        <v>3.64</v>
+        <v>4.14</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>2.9</v>
       </c>
       <c r="M2" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="N2" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="O2" t="n">
         <v>1.48</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,10 +763,10 @@
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="N3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.92</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="N4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="G5" t="n">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.42</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
         <v>1.11</v>
@@ -983,7 +983,7 @@
         <v>2.5</v>
       </c>
       <c r="M5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N5" t="n">
         <v>1.52</v>
@@ -1025,28 +1025,28 @@
         <v>2.67</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.93</v>
+        <v>3.13</v>
       </c>
       <c r="G6" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
         <v>1.12</v>
@@ -1087,16 +1087,16 @@
         <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M6" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="N6" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1135,28 +1135,28 @@
         <v>2.78</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="G7" t="n">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>1.11</v>
@@ -1203,7 +1203,7 @@
         <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="N7" t="n">
         <v>1.52</v>
@@ -1245,28 +1245,28 @@
         <v>2.73</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
     </row>
   </sheetData>
